--- a/biology/Botanique/Britegold/Britegold.xlsx
+++ b/biology/Botanique/Britegold/Britegold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Britegold (ou Brite Gold) est un cultivar de pommier domestique.
 Nom botanique: Malus domestica Borkh britegold.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agriculture Canada, ferme expérimentale de Smithfield, Trenton, Ontario[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agriculture Canada, ferme expérimentale de Smithfield, Trenton, Ontario.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1980: mise sur le marché.</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Usage: pomme à couteau.
 Peau: jaune.
@@ -606,7 +624,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar obtenu par sélection de croisements  Sandel x Ottawa 522
 </t>
@@ -637,9 +657,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Groupe de floraison: B[2].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Groupe de floraison: B.</t>
         </is>
       </c>
     </row>
@@ -667,7 +689,9 @@
           <t>Résistances et susceptibilités</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>tavelure : résistant.
 Mildiou : résistant.
@@ -699,7 +723,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Cueillette : mi-septembre
 Conservation : un bon mois</t>
